--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1074944436305246</v>
+        <v>0.08780144004532819</v>
       </c>
       <c r="H2" t="n">
-        <v>13.48547343540088</v>
+        <v>-7.305088008990253</v>
       </c>
       <c r="I2" t="n">
-        <v>7.042489001721906</v>
+        <v>44.65302825260931</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05828124581469027</v>
+        <v>0.09202401271684942</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.82054586669022</v>
+        <v>39.23221947467672</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01747796208144243</v>
+        <v>0.009203472610279827</v>
       </c>
       <c r="H4" t="n">
-        <v>86.42627498725192</v>
+        <v>-1.832427162465355</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0702312787428535</v>
+        <v>0.05296606007633486</v>
       </c>
       <c r="H5" t="n">
-        <v>-624.5127933945296</v>
+        <v>495.5698461288206</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2212184967282149</v>
+        <v>-0.2254735375273857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01031155756857047</v>
+        <v>-1.933966054407766</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2109967430759729</v>
+        <v>-0.2606665125120894</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.55931694237887</v>
+        <v>-4.318474521871623</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3855505134397227</v>
+        <v>-0.3924973142448263</v>
       </c>
       <c r="H8" t="n">
-        <v>4.130830849586298</v>
+        <v>-6.007047102363014</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4685764407504819</v>
+        <v>-0.352611259055911</v>
       </c>
       <c r="H9" t="n">
-        <v>17.5454191611437</v>
+        <v>11.54519382092288</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03018081137883186</v>
+        <v>-0.0292761444383459</v>
       </c>
       <c r="H10" t="n">
-        <v>-286.2451062978694</v>
+        <v>-280.6624270126746</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1379751710994229</v>
+        <v>0.04262529026098123</v>
       </c>
       <c r="H11" t="n">
-        <v>-958.8093519333048</v>
+        <v>365.3158362719031</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2223332120200316</v>
+        <v>0.2178775189809439</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.137248414551219</v>
+        <v>-4.098477585233849</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2690534965014146</v>
+        <v>0.286535152397906</v>
       </c>
       <c r="H13" t="n">
-        <v>2.169400331612209</v>
+        <v>8.807821028511535</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0009739472192267073</v>
+        <v>-0.01895751064732112</v>
       </c>
       <c r="H14" t="n">
-        <v>-89.82001160379087</v>
+        <v>-98.14958613873105</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03531415022695309</v>
+        <v>0.02728944632635594</v>
       </c>
       <c r="H15" t="n">
-        <v>74.93756082094187</v>
+        <v>35.18516361872027</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1365673218480378</v>
+        <v>0.1193543737835493</v>
       </c>
       <c r="H16" t="n">
-        <v>15.73589598228597</v>
+        <v>1.148541263879328</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1945767320123231</v>
+        <v>0.1795338430622062</v>
       </c>
       <c r="H17" t="n">
-        <v>-11.08434240360604</v>
+        <v>-17.95848582926734</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0750083296938624</v>
+        <v>0.04239690756981041</v>
       </c>
       <c r="H18" t="n">
-        <v>24.04918645594214</v>
+        <v>-29.88376206018753</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07019799768561678</v>
+        <v>0.08773393159087975</v>
       </c>
       <c r="H19" t="n">
-        <v>-22.07954275953466</v>
+        <v>-2.614486303705878</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.158768800616359</v>
+        <v>-0.1487736286292619</v>
       </c>
       <c r="H20" t="n">
-        <v>9.096225517720798</v>
+        <v>-2.228153623497549</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.177002767103951</v>
+        <v>-0.1800433447937272</v>
       </c>
       <c r="H21" t="n">
-        <v>-11.4232791948354</v>
+        <v>9.901696196330363</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06629194226043297</v>
+        <v>0.03735406771233536</v>
       </c>
       <c r="H22" t="n">
-        <v>21.88653119988275</v>
+        <v>-31.3195905201351</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06276905179031554</v>
+        <v>0.0618586224879247</v>
       </c>
       <c r="H23" t="n">
-        <v>53.69448736138143</v>
+        <v>51.4652364659373</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1243356485968179</v>
+        <v>0.1080587264919119</v>
       </c>
       <c r="H24" t="n">
-        <v>7.431957366902732</v>
+        <v>-6.632083166709856</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1621603585139961</v>
+        <v>0.1541904037717162</v>
       </c>
       <c r="H25" t="n">
-        <v>6.631110790342381</v>
+        <v>1.390340882666623</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04009043400257626</v>
+        <v>0.04008186082195228</v>
       </c>
       <c r="H26" t="n">
-        <v>-24.1814103300126</v>
+        <v>-24.19762383530551</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03294457651785661</v>
+        <v>0.04769684511658644</v>
       </c>
       <c r="H27" t="n">
-        <v>-34.72030793857122</v>
+        <v>-5.488681579355728</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1534260913720878</v>
+        <v>0.1639230147903397</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3368094313248973</v>
+        <v>7.201533646178758</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1993437187600633</v>
+        <v>0.1949935796757985</v>
       </c>
       <c r="H29" t="n">
-        <v>16.77803909232458</v>
+        <v>14.229673308847</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00774778777026318</v>
+        <v>0.02789225223439786</v>
       </c>
       <c r="H30" t="n">
-        <v>-60.40195559039622</v>
+        <v>42.55406516175641</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03747525643638543</v>
+        <v>0.04379583579400411</v>
       </c>
       <c r="H31" t="n">
-        <v>286.1449763469792</v>
+        <v>351.2722149207809</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0165459380829598</v>
+        <v>0.03625063120518941</v>
       </c>
       <c r="H32" t="n">
-        <v>-55.63291429426928</v>
+        <v>-2.795788700318291</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0253395201440186</v>
+        <v>0.0204554949812015</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.927249841012894</v>
+        <v>-21.63738135517511</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1239254419180455</v>
+        <v>0.07814092310363718</v>
       </c>
       <c r="H34" t="n">
-        <v>-3.159044791195928</v>
+        <v>-38.93714222735387</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1434029275865386</v>
+        <v>0.1451589308708243</v>
       </c>
       <c r="H35" t="n">
-        <v>11.45831383539957</v>
+        <v>12.8231476532991</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.05262859477422647</v>
+        <v>-0.0004743575117232557</v>
       </c>
       <c r="H36" t="n">
-        <v>-450.1130174168813</v>
+        <v>-103.155674980042</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0346594298580697</v>
+        <v>0.04670055068784153</v>
       </c>
       <c r="H37" t="n">
-        <v>126.3179085481547</v>
+        <v>204.9435897532105</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.033797825060624</v>
+        <v>-0.00740678114589158</v>
       </c>
       <c r="H38" t="n">
-        <v>1554.798286430881</v>
+        <v>-262.6484463483891</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>0.007333612484255365</v>
+        <v>0.02863559196215204</v>
       </c>
       <c r="H39" t="n">
-        <v>-121.9508691105184</v>
+        <v>185.7116642599964</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1105043634268605</v>
+        <v>0.1307558692232715</v>
       </c>
       <c r="H40" t="n">
-        <v>-25.10666330155416</v>
+        <v>-11.38138770856821</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1471896828730669</v>
+        <v>0.1670133006373962</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.803961046007839</v>
+        <v>3.478390424263764</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06480794187983688</v>
+        <v>0.05712942873300549</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3764238255397188</v>
+        <v>-11.51628048846844</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06368877353087343</v>
+        <v>0.05021808988384746</v>
       </c>
       <c r="H43" t="n">
-        <v>83.22156193329599</v>
+        <v>44.46874002629264</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01569078809499338</v>
+        <v>0.0373975350966762</v>
       </c>
       <c r="H44" t="n">
-        <v>11.18139110239844</v>
+        <v>164.9905123105917</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0542986176153434</v>
+        <v>0.04062660362704599</v>
       </c>
       <c r="H45" t="n">
-        <v>32.24844542059919</v>
+        <v>-1.050792665530195</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0371591993709563</v>
+        <v>-0.04011426250070976</v>
       </c>
       <c r="H46" t="n">
-        <v>-43.54409580087054</v>
+        <v>39.05447374819153</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.05652672106063793</v>
+        <v>-0.05160746553427206</v>
       </c>
       <c r="H47" t="n">
-        <v>36.83642634752371</v>
+        <v>-24.92819367653398</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1261627600801031</v>
+        <v>-0.08256421516848483</v>
       </c>
       <c r="H48" t="n">
-        <v>0.148720022495281</v>
+        <v>34.46005411156436</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1421621662213478</v>
+        <v>-0.155711390964151</v>
       </c>
       <c r="H49" t="n">
-        <v>-28.01237915051571</v>
+        <v>21.15136626984043</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1008538979215984</v>
+        <v>0.1326565210207497</v>
       </c>
       <c r="H50" t="n">
-        <v>-7.366107425743902</v>
+        <v>21.84447176313874</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.149970399068011</v>
+        <v>0.1378309156399299</v>
       </c>
       <c r="H51" t="n">
-        <v>49.56533376908719</v>
+        <v>37.45863870133678</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05036030783333118</v>
+        <v>0.0536808935918659</v>
       </c>
       <c r="H52" t="n">
-        <v>-15.52984310862657</v>
+        <v>-9.960171038253637</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07197494312611806</v>
+        <v>0.07384411119627586</v>
       </c>
       <c r="H53" t="n">
-        <v>6.562165807767702</v>
+        <v>9.329553862048247</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05486437953001948</v>
+        <v>-0.0455602742494054</v>
       </c>
       <c r="H54" t="n">
-        <v>-21.53328923870674</v>
+        <v>34.8399655230363</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0521859272596583</v>
+        <v>-0.04701755511397501</v>
       </c>
       <c r="H55" t="n">
-        <v>-32.43333369425533</v>
+        <v>39.12497825148908</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07882683552451322</v>
+        <v>0.04470127403729982</v>
       </c>
       <c r="H56" t="n">
-        <v>72.01306884937534</v>
+        <v>-2.454496904906267</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04333048668230689</v>
+        <v>0.06861820902896697</v>
       </c>
       <c r="H57" t="n">
-        <v>738.0688284055465</v>
+        <v>1227.166769896331</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Auto Recurrence/input 125/DAX30_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08780144004532819</v>
+        <v>0.1132309489190599</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.305088008990253</v>
+        <v>19.54169361336406</v>
       </c>
       <c r="I2" t="n">
-        <v>44.65302825260931</v>
+        <v>4.485680346449999</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09202401271684942</v>
+        <v>0.07999476026304553</v>
       </c>
       <c r="H3" t="n">
-        <v>39.23221947467672</v>
+        <v>21.03197512195841</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009203472610279827</v>
+        <v>0.001884135350643496</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.832427162465355</v>
+        <v>-79.90312981825177</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05296606007633486</v>
+        <v>0.02139826697649108</v>
       </c>
       <c r="H5" t="n">
-        <v>495.5698461288206</v>
+        <v>259.810058802088</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2254735375273857</v>
+        <v>-0.2184643526377449</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.933966054407766</v>
+        <v>1.234804979412254</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2606665125120894</v>
+        <v>-0.2549660960028569</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.318474521871623</v>
+        <v>-2.037173603500511</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3924973142448263</v>
+        <v>-0.3874074037318599</v>
       </c>
       <c r="H8" t="n">
-        <v>-6.007047102363014</v>
+        <v>-4.632346272796875</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.352611259055911</v>
+        <v>-0.4355255419159755</v>
       </c>
       <c r="H9" t="n">
-        <v>11.54519382092288</v>
+        <v>-9.254388244326066</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0292761444383459</v>
+        <v>-0.03807182547976942</v>
       </c>
       <c r="H10" t="n">
-        <v>-280.6624270126746</v>
+        <v>-334.9403763348403</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04262529026098123</v>
+        <v>0.0753273591192322</v>
       </c>
       <c r="H11" t="n">
-        <v>365.3158362719031</v>
+        <v>568.8658108017067</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2178775189809439</v>
+        <v>0.2179881036386403</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.098477585233849</v>
+        <v>-4.049802361289668</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.286535152397906</v>
+        <v>0.2455546354235534</v>
       </c>
       <c r="H13" t="n">
-        <v>8.807821028511535</v>
+        <v>-6.753972068375597</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01895751064732112</v>
+        <v>0.01218669362007548</v>
       </c>
       <c r="H14" t="n">
-        <v>-98.14958613873105</v>
+        <v>227.3789761821235</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02728944632635594</v>
+        <v>0.04653306550818495</v>
       </c>
       <c r="H15" t="n">
-        <v>35.18516361872027</v>
+        <v>130.513290712286</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1193543737835493</v>
+        <v>0.1372015492691846</v>
       </c>
       <c r="H16" t="n">
-        <v>1.148541263879328</v>
+        <v>16.27338092267776</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1795338430622062</v>
+        <v>0.1769554511433631</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.95848582926734</v>
+        <v>-19.13673263521453</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04239690756981041</v>
+        <v>0.06228022902889507</v>
       </c>
       <c r="H18" t="n">
-        <v>-29.88376206018753</v>
+        <v>2.999383866514159</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08773393159087975</v>
+        <v>0.07028610898038067</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.614486303705878</v>
+        <v>-21.98173836906189</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1487736286292619</v>
+        <v>-0.1452702048528579</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.228153623497549</v>
+        <v>0.1791852800586353</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1800433447937272</v>
+        <v>-0.1776995314925533</v>
       </c>
       <c r="H21" t="n">
-        <v>9.901696196330363</v>
+        <v>11.07460043841821</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03735406771233536</v>
+        <v>0.04970126971753371</v>
       </c>
       <c r="H22" t="n">
-        <v>-31.3195905201351</v>
+        <v>-8.61762145539535</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0618586224879247</v>
+        <v>0.04565979463589098</v>
       </c>
       <c r="H23" t="n">
-        <v>51.4652364659373</v>
+        <v>11.8012544308014</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1080587264919119</v>
+        <v>0.118877049589962</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.632083166709856</v>
+        <v>2.715466300940102</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1541904037717162</v>
+        <v>0.1417702597389913</v>
       </c>
       <c r="H25" t="n">
-        <v>1.390340882666623</v>
+        <v>-6.776721440837006</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04008186082195228</v>
+        <v>0.05123459954186331</v>
       </c>
       <c r="H26" t="n">
-        <v>-24.19762383530551</v>
+        <v>-3.105686525592766</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04769684511658644</v>
+        <v>0.06795184545913183</v>
       </c>
       <c r="H27" t="n">
-        <v>-5.488681579355728</v>
+        <v>34.64661001708708</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1639230147903397</v>
+        <v>0.1455671779637235</v>
       </c>
       <c r="H28" t="n">
-        <v>7.201533646178758</v>
+        <v>-4.80272250838915</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1949935796757985</v>
+        <v>0.1914685022172364</v>
       </c>
       <c r="H29" t="n">
-        <v>14.229673308847</v>
+        <v>12.16463892592313</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02789225223439786</v>
+        <v>0.003601829977364633</v>
       </c>
       <c r="H30" t="n">
-        <v>42.55406516175641</v>
+        <v>-81.59146486343647</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04379583579400411</v>
+        <v>0.03033663655102923</v>
       </c>
       <c r="H31" t="n">
-        <v>351.2722149207809</v>
+        <v>212.5886496154944</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03625063120518941</v>
+        <v>0.01637555253953559</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.795788700318291</v>
+        <v>-56.08979440407126</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0204554949812015</v>
+        <v>0.02496853781122375</v>
       </c>
       <c r="H33" t="n">
-        <v>-21.63738135517511</v>
+        <v>-4.348439946433787</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07814092310363718</v>
+        <v>0.1024463592681746</v>
       </c>
       <c r="H34" t="n">
-        <v>-38.93714222735387</v>
+        <v>-19.94377316196852</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1451589308708243</v>
+        <v>0.1300478565098161</v>
       </c>
       <c r="H35" t="n">
-        <v>12.8231476532991</v>
+        <v>1.078234931744494</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0004743575117232557</v>
+        <v>-0.03855189881183218</v>
       </c>
       <c r="H36" t="n">
-        <v>-103.155674980042</v>
+        <v>-356.4674523054322</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04670055068784153</v>
+        <v>0.03075711236371647</v>
       </c>
       <c r="H37" t="n">
-        <v>204.9435897532105</v>
+        <v>100.8366949958991</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.00740678114589158</v>
+        <v>-0.0468533844501826</v>
       </c>
       <c r="H38" t="n">
-        <v>-262.6484463483891</v>
+        <v>-2194.020404051939</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02863559196215204</v>
+        <v>-0.03070003599534824</v>
       </c>
       <c r="H39" t="n">
-        <v>185.7116642599964</v>
+        <v>8.109069947603134</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1307558692232715</v>
+        <v>0.1313343778615012</v>
       </c>
       <c r="H40" t="n">
-        <v>-11.38138770856821</v>
+        <v>-10.98930869121273</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1670133006373962</v>
+        <v>0.1486924436117502</v>
       </c>
       <c r="H41" t="n">
-        <v>3.478390424263764</v>
+        <v>-7.872877941618805</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05712942873300549</v>
+        <v>0.04233621456857788</v>
       </c>
       <c r="H42" t="n">
-        <v>-11.51628048846844</v>
+        <v>-34.42844050527255</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.05021808988384746</v>
+        <v>0.0687494686567721</v>
       </c>
       <c r="H43" t="n">
-        <v>44.46874002629264</v>
+        <v>97.78030461321106</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0373975350966762</v>
+        <v>0.02361918520750009</v>
       </c>
       <c r="H44" t="n">
-        <v>164.9905123105917</v>
+        <v>67.36022768116796</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04062660362704599</v>
+        <v>0.05176831567429117</v>
       </c>
       <c r="H45" t="n">
-        <v>-1.050792665530195</v>
+        <v>26.08570108483318</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04011426250070976</v>
+        <v>-0.03941531594621493</v>
       </c>
       <c r="H46" t="n">
-        <v>39.05447374819153</v>
+        <v>40.11638198057701</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.05160746553427206</v>
+        <v>-0.05339122331374629</v>
       </c>
       <c r="H47" t="n">
-        <v>-24.92819367653398</v>
+        <v>-29.24620532541438</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.08256421516848483</v>
+        <v>-0.1503394814108575</v>
       </c>
       <c r="H48" t="n">
-        <v>34.46005411156436</v>
+        <v>-19.34033959453306</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.155711390964151</v>
+        <v>-0.1372552014972804</v>
       </c>
       <c r="H49" t="n">
-        <v>21.15136626984043</v>
+        <v>30.49715217745425</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1326565210207497</v>
+        <v>0.1143297693833415</v>
       </c>
       <c r="H50" t="n">
-        <v>21.84447176313874</v>
+        <v>5.01142537226467</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1378309156399299</v>
+        <v>0.1548684740798898</v>
       </c>
       <c r="H51" t="n">
-        <v>37.45863870133678</v>
+        <v>54.45017923546123</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0536808935918659</v>
+        <v>0.06757346412529057</v>
       </c>
       <c r="H52" t="n">
-        <v>-9.960171038253637</v>
+        <v>13.34206167379827</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07384411119627586</v>
+        <v>0.06220649611159036</v>
       </c>
       <c r="H53" t="n">
-        <v>9.329553862048247</v>
+        <v>-7.900462785387215</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0455602742494054</v>
+        <v>-0.1095686560659947</v>
       </c>
       <c r="H54" t="n">
-        <v>34.8399655230363</v>
+        <v>-56.70444316844668</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04701755511397501</v>
+        <v>-0.07086766981252733</v>
       </c>
       <c r="H55" t="n">
-        <v>39.12497825148908</v>
+        <v>8.245528066140922</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04470127403729982</v>
+        <v>0.04987099109548468</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.454496904906267</v>
+        <v>8.826672640264732</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06861820902896697</v>
+        <v>0.09004424012311593</v>
       </c>
       <c r="H57" t="n">
-        <v>1227.166769896331</v>
+        <v>1641.574503372964</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>